--- a/rf_ga/10_08_classRF_check/結果グラフ.xlsx
+++ b/rf_ga/10_08_classRF_check/結果グラフ.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19476" windowHeight="15180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OOB" sheetId="8" r:id="rId1"/>
     <sheet name="Validation" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -223,12 +223,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -247,12 +247,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -271,12 +271,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -295,7 +295,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -303,9 +306,6 @@
                       <c:h val="7.024104676602945E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -324,12 +324,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -348,11 +348,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -390,7 +390,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -457,7 +457,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-82CB-4782-A378-A0EA498416DD}"/>
             </c:ext>
@@ -495,12 +495,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -519,12 +519,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -543,12 +543,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -567,12 +567,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -591,12 +591,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -635,7 +635,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -685,24 +685,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>77.370099999999994</c:v>
+                  <c:v>76.136300000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.666550000000001</c:v>
+                  <c:v>82.592500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.516099999999994</c:v>
+                  <c:v>75.320350000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.240950000000012</c:v>
+                  <c:v>74.888049999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.367499999999993</c:v>
+                  <c:v>91.538550000000015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-82CB-4782-A378-A0EA498416DD}"/>
             </c:ext>
@@ -740,12 +740,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -764,12 +764,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -788,12 +788,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -812,12 +812,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -836,12 +836,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-82CB-4782-A378-A0EA498416DD}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -860,11 +860,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-82CB-4782-A378-A0EA498416DD}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -902,7 +902,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -969,7 +969,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-82CB-4782-A378-A0EA498416DD}"/>
             </c:ext>
@@ -986,11 +986,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="442754912"/>
-        <c:axId val="442757656"/>
+        <c:axId val="442247232"/>
+        <c:axId val="442247624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442754912"/>
+        <c:axId val="442247232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1030,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442757656"/>
+        <c:crossAx val="442247624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1038,7 +1038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442757656"/>
+        <c:axId val="442247624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1148,7 +1148,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442754912"/>
+        <c:crossAx val="442247232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1237,7 +1237,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1299,12 +1299,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1323,12 +1323,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1347,12 +1347,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1371,12 +1371,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1395,12 +1395,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1419,11 +1419,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -1461,7 +1461,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1528,7 +1528,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A92A-475D-B874-57DA907C2F72}"/>
             </c:ext>
@@ -1566,12 +1566,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1590,12 +1590,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1614,12 +1614,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1638,12 +1638,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1662,12 +1662,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1706,7 +1706,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1756,24 +1756,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>78.755249999999975</c:v>
+                  <c:v>77.099499999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.296149999999983</c:v>
+                  <c:v>79.629649999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.977399999999989</c:v>
+                  <c:v>75.391349999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.524549999999991</c:v>
+                  <c:v>75.184100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.010050000000007</c:v>
+                  <c:v>90.815850000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-A92A-475D-B874-57DA907C2F72}"/>
             </c:ext>
@@ -1811,12 +1811,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1835,12 +1835,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1859,12 +1859,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1883,12 +1883,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1907,12 +1907,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-A92A-475D-B874-57DA907C2F72}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1931,11 +1931,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-A92A-475D-B874-57DA907C2F72}"/>
                 </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
@@ -1973,7 +1973,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2040,7 +2040,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-A92A-475D-B874-57DA907C2F72}"/>
             </c:ext>
@@ -2057,11 +2057,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="442743152"/>
-        <c:axId val="442750600"/>
+        <c:axId val="442246056"/>
+        <c:axId val="442243704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442743152"/>
+        <c:axId val="442246056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2101,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442750600"/>
+        <c:crossAx val="442243704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2109,7 +2109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442750600"/>
+        <c:axId val="442243704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2219,7 +2219,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442743152"/>
+        <c:crossAx val="442246056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -3756,13 +3756,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.95238</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E3">
-        <v>0.81481000000000003</v>
+        <v>0.85185</v>
       </c>
       <c r="F3">
         <v>0.81481000000000003</v>
@@ -3823,7 +3823,7 @@
         <v>0.76315999999999995</v>
       </c>
       <c r="H3">
-        <v>0.73684000000000005</v>
+        <v>0.76315999999999995</v>
       </c>
       <c r="I3">
         <v>0.76315999999999995</v>
@@ -3832,7 +3832,7 @@
         <v>0.73809999999999998</v>
       </c>
       <c r="K3">
-        <v>0.70238</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="L3">
         <v>0.71428999999999998</v>
@@ -3841,18 +3841,18 @@
         <v>0.91601999999999995</v>
       </c>
       <c r="N3">
-        <v>0.91757</v>
+        <v>0.92535000000000001</v>
       </c>
       <c r="O3">
         <v>0.91446000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.81818000000000002</v>
       </c>
       <c r="B4" s="1">
-        <v>0.86363999999999996</v>
+        <v>0.81818000000000002</v>
       </c>
       <c r="C4" s="1">
         <v>0.81818000000000002</v>
@@ -3879,7 +3879,7 @@
         <v>0.72941</v>
       </c>
       <c r="K4">
-        <v>0.74117999999999995</v>
+        <v>0.71765000000000001</v>
       </c>
       <c r="L4">
         <v>0.70587999999999995</v>
@@ -3894,7 +3894,7 @@
         <v>0.92547000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.81818000000000002</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0.72726999999999997</v>
       </c>
       <c r="H5">
-        <v>0.75324999999999998</v>
+        <v>0.72726999999999997</v>
       </c>
       <c r="I5">
         <v>0.75324999999999998</v>
@@ -3926,7 +3926,7 @@
         <v>0.71765000000000001</v>
       </c>
       <c r="K5">
-        <v>0.69411999999999996</v>
+        <v>0.74117999999999995</v>
       </c>
       <c r="L5">
         <v>0.74117999999999995</v>
@@ -3935,18 +3935,18 @@
         <v>0.91925000000000001</v>
       </c>
       <c r="N5">
-        <v>0.92235999999999996</v>
+        <v>0.92081000000000002</v>
       </c>
       <c r="O5">
         <v>0.91925000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.77273000000000003</v>
       </c>
       <c r="B6" s="1">
-        <v>0.77273000000000003</v>
+        <v>0.81818000000000002</v>
       </c>
       <c r="C6" s="1">
         <v>0.81818000000000002</v>
@@ -3955,7 +3955,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E6">
-        <v>0.81481000000000003</v>
+        <v>0.77778000000000003</v>
       </c>
       <c r="F6">
         <v>0.81481000000000003</v>
@@ -3964,7 +3964,7 @@
         <v>0.79220999999999997</v>
       </c>
       <c r="H6">
-        <v>0.75324999999999998</v>
+        <v>0.77922000000000002</v>
       </c>
       <c r="I6">
         <v>0.77922000000000002</v>
@@ -3973,7 +3973,7 @@
         <v>0.76471</v>
       </c>
       <c r="K6">
-        <v>0.76471</v>
+        <v>0.75294000000000005</v>
       </c>
       <c r="L6">
         <v>0.77646999999999999</v>
@@ -3982,18 +3982,18 @@
         <v>0.89129999999999998</v>
       </c>
       <c r="N6">
-        <v>0.89441000000000004</v>
+        <v>0.88353999999999999</v>
       </c>
       <c r="O6">
         <v>0.88975000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.59091000000000005</v>
       </c>
       <c r="B7" s="1">
-        <v>0.45455000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="1">
         <v>0.54544999999999999</v>
@@ -4002,7 +4002,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E7">
-        <v>0.77778000000000003</v>
+        <v>0.85185</v>
       </c>
       <c r="F7">
         <v>0.81481000000000003</v>
@@ -4020,7 +4020,7 @@
         <v>0.69411999999999996</v>
       </c>
       <c r="K7">
-        <v>0.67059000000000002</v>
+        <v>0.69411999999999996</v>
       </c>
       <c r="L7">
         <v>0.67059000000000002</v>
@@ -4035,12 +4035,12 @@
         <v>0.91459999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0.80952000000000002</v>
       </c>
       <c r="B8" s="1">
-        <v>0.80952000000000002</v>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>0.80952000000000002</v>
@@ -4058,7 +4058,7 @@
         <v>0.84416000000000002</v>
       </c>
       <c r="H8">
-        <v>0.79220999999999997</v>
+        <v>0.80518999999999996</v>
       </c>
       <c r="I8">
         <v>0.80518999999999996</v>
@@ -4067,7 +4067,7 @@
         <v>0.75294000000000005</v>
       </c>
       <c r="K8">
-        <v>0.76471</v>
+        <v>0.75294000000000005</v>
       </c>
       <c r="L8">
         <v>0.72941</v>
@@ -4076,13 +4076,13 @@
         <v>0.92701999999999996</v>
       </c>
       <c r="N8">
-        <v>0.92391000000000001</v>
+        <v>0.93167999999999995</v>
       </c>
       <c r="O8">
         <v>0.92857000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.95238</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>0.77778000000000003</v>
       </c>
       <c r="E9">
-        <v>0.77778000000000003</v>
+        <v>0.74073999999999995</v>
       </c>
       <c r="F9">
         <v>0.77778000000000003</v>
@@ -4105,7 +4105,7 @@
         <v>0.75324999999999998</v>
       </c>
       <c r="H9">
-        <v>0.75324999999999998</v>
+        <v>0.74026000000000003</v>
       </c>
       <c r="I9">
         <v>0.70130000000000003</v>
@@ -4114,7 +4114,7 @@
         <v>0.71765000000000001</v>
       </c>
       <c r="K9">
-        <v>0.75294000000000005</v>
+        <v>0.71765000000000001</v>
       </c>
       <c r="L9">
         <v>0.74117999999999995</v>
@@ -4123,18 +4123,18 @@
         <v>0.91601999999999995</v>
       </c>
       <c r="N9">
-        <v>0.91446000000000005</v>
+        <v>0.92223999999999995</v>
       </c>
       <c r="O9">
         <v>0.91601999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.80952000000000002</v>
       </c>
       <c r="B10" s="1">
-        <v>0.80952000000000002</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="C10" s="1">
         <v>0.76190000000000002</v>
@@ -4152,7 +4152,7 @@
         <v>0.81818000000000002</v>
       </c>
       <c r="H10">
-        <v>0.81818000000000002</v>
+        <v>0.77922000000000002</v>
       </c>
       <c r="I10">
         <v>0.81818000000000002</v>
@@ -4170,18 +4170,18 @@
         <v>0.92223999999999995</v>
       </c>
       <c r="N10">
-        <v>0.92535000000000001</v>
+        <v>0.92068000000000005</v>
       </c>
       <c r="O10">
         <v>0.91757</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>0.85714000000000001</v>
       </c>
       <c r="B11" s="1">
-        <v>0.85714000000000001</v>
+        <v>0.80952000000000002</v>
       </c>
       <c r="C11" s="1">
         <v>0.85714000000000001</v>
@@ -4190,7 +4190,7 @@
         <v>0.74073999999999995</v>
       </c>
       <c r="E11">
-        <v>0.85185</v>
+        <v>0.77778000000000003</v>
       </c>
       <c r="F11">
         <v>0.74073999999999995</v>
@@ -4199,7 +4199,7 @@
         <v>0.74026000000000003</v>
       </c>
       <c r="H11">
-        <v>0.71428999999999998</v>
+        <v>0.68830999999999998</v>
       </c>
       <c r="I11">
         <v>0.71428999999999998</v>
@@ -4208,7 +4208,7 @@
         <v>0.82142999999999999</v>
       </c>
       <c r="K11">
-        <v>0.80952000000000002</v>
+        <v>0.82142999999999999</v>
       </c>
       <c r="L11">
         <v>0.83333000000000002</v>
@@ -4217,18 +4217,18 @@
         <v>0.91757</v>
       </c>
       <c r="N11">
-        <v>0.91134999999999999</v>
+        <v>0.91446000000000005</v>
       </c>
       <c r="O11">
         <v>0.91601999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.61904999999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.52381</v>
+        <v>0.57142999999999999</v>
       </c>
       <c r="C12" s="1">
         <v>0.57142999999999999</v>
@@ -4237,7 +4237,7 @@
         <v>0.92593000000000003</v>
       </c>
       <c r="E12">
-        <v>0.85185</v>
+        <v>0.92593000000000003</v>
       </c>
       <c r="F12">
         <v>0.96296000000000004</v>
@@ -4246,7 +4246,7 @@
         <v>0.76315999999999995</v>
       </c>
       <c r="H12">
-        <v>0.75</v>
+        <v>0.78947000000000001</v>
       </c>
       <c r="I12">
         <v>0.78947000000000001</v>
@@ -4255,7 +4255,7 @@
         <v>0.82142999999999999</v>
       </c>
       <c r="K12">
-        <v>0.80952000000000002</v>
+        <v>0.78571000000000002</v>
       </c>
       <c r="L12">
         <v>0.79762</v>
@@ -4264,18 +4264,18 @@
         <v>0.90824000000000005</v>
       </c>
       <c r="N12">
-        <v>0.90046999999999999</v>
+        <v>0.90669</v>
       </c>
       <c r="O12">
         <v>0.89890999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.80952000000000002</v>
       </c>
       <c r="B13" s="1">
-        <v>0.76190000000000002</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="C13" s="1">
         <v>0.71428999999999998</v>
@@ -4284,7 +4284,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E13">
-        <v>0.77778000000000003</v>
+        <v>0.85185</v>
       </c>
       <c r="F13">
         <v>0.77778000000000003</v>
@@ -4293,7 +4293,7 @@
         <v>0.72367999999999999</v>
       </c>
       <c r="H13">
-        <v>0.73684000000000005</v>
+        <v>0.69737000000000005</v>
       </c>
       <c r="I13">
         <v>0.73684000000000005</v>
@@ -4302,7 +4302,7 @@
         <v>0.71428999999999998</v>
       </c>
       <c r="K13">
-        <v>0.71428999999999998</v>
+        <v>0.70238</v>
       </c>
       <c r="L13">
         <v>0.71428999999999998</v>
@@ -4317,12 +4317,12 @@
         <v>0.92068000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>0.86363999999999996</v>
       </c>
       <c r="B14" s="1">
-        <v>0.86363999999999996</v>
+        <v>0.90908999999999995</v>
       </c>
       <c r="C14" s="1">
         <v>0.86363999999999996</v>
@@ -4331,7 +4331,7 @@
         <v>0.77778000000000003</v>
       </c>
       <c r="E14">
-        <v>0.74073999999999995</v>
+        <v>0.81481000000000003</v>
       </c>
       <c r="F14">
         <v>0.85185</v>
@@ -4340,7 +4340,7 @@
         <v>0.77922000000000002</v>
       </c>
       <c r="H14">
-        <v>0.75324999999999998</v>
+        <v>0.79220999999999997</v>
       </c>
       <c r="I14">
         <v>0.75324999999999998</v>
@@ -4349,7 +4349,7 @@
         <v>0.71765000000000001</v>
       </c>
       <c r="K14">
-        <v>0.77646999999999999</v>
+        <v>0.74117999999999995</v>
       </c>
       <c r="L14">
         <v>0.72941</v>
@@ -4358,18 +4358,18 @@
         <v>0.92701999999999996</v>
       </c>
       <c r="N14">
-        <v>0.92391000000000001</v>
+        <v>0.92547000000000001</v>
       </c>
       <c r="O14">
         <v>0.92391000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.90908999999999995</v>
       </c>
       <c r="B15" s="1">
-        <v>0.77273000000000003</v>
+        <v>0.95455000000000001</v>
       </c>
       <c r="C15" s="1">
         <v>0.81818000000000002</v>
@@ -4378,7 +4378,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E15">
-        <v>0.85185</v>
+        <v>0.81481000000000003</v>
       </c>
       <c r="F15">
         <v>0.77778000000000003</v>
@@ -4387,7 +4387,7 @@
         <v>0.76622999999999997</v>
       </c>
       <c r="H15">
-        <v>0.75324999999999998</v>
+        <v>0.79220999999999997</v>
       </c>
       <c r="I15">
         <v>0.75324999999999998</v>
@@ -4396,7 +4396,7 @@
         <v>0.77646999999999999</v>
       </c>
       <c r="K15">
-        <v>0.76471</v>
+        <v>0.77646999999999999</v>
       </c>
       <c r="L15">
         <v>0.74117999999999995</v>
@@ -4411,7 +4411,7 @@
         <v>0.90839000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.72726999999999997</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0.79220999999999997</v>
       </c>
       <c r="H16">
-        <v>0.74026000000000003</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="I16">
         <v>0.75324999999999998</v>
@@ -4443,7 +4443,7 @@
         <v>0.78824000000000005</v>
       </c>
       <c r="K16">
-        <v>0.8</v>
+        <v>0.78824000000000005</v>
       </c>
       <c r="L16">
         <v>0.77646999999999999</v>
@@ -4458,12 +4458,12 @@
         <v>0.91769999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.77273000000000003</v>
       </c>
       <c r="B17" s="1">
-        <v>0.77273000000000003</v>
+        <v>0.68181999999999998</v>
       </c>
       <c r="C17" s="1">
         <v>0.77273000000000003</v>
@@ -4481,7 +4481,7 @@
         <v>0.74026000000000003</v>
       </c>
       <c r="H17">
-        <v>0.72726999999999997</v>
+        <v>0.76622999999999997</v>
       </c>
       <c r="I17">
         <v>0.71428999999999998</v>
@@ -4490,7 +4490,7 @@
         <v>0.75294000000000005</v>
       </c>
       <c r="K17">
-        <v>0.76471</v>
+        <v>0.77646999999999999</v>
       </c>
       <c r="L17">
         <v>0.78824000000000005</v>
@@ -4499,18 +4499,18 @@
         <v>0.91769999999999996</v>
       </c>
       <c r="N17">
-        <v>0.91925000000000001</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="O17">
         <v>0.91303999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.61904999999999999</v>
       </c>
       <c r="B18" s="1">
-        <v>0.61904999999999999</v>
+        <v>0.57142999999999999</v>
       </c>
       <c r="C18" s="1">
         <v>0.61904999999999999</v>
@@ -4537,7 +4537,7 @@
         <v>0.71765000000000001</v>
       </c>
       <c r="K18">
-        <v>0.76471</v>
+        <v>0.72941</v>
       </c>
       <c r="L18">
         <v>0.70587999999999995</v>
@@ -4546,18 +4546,18 @@
         <v>0.91459999999999997</v>
       </c>
       <c r="N18">
-        <v>0.90993999999999997</v>
+        <v>0.91769999999999996</v>
       </c>
       <c r="O18">
         <v>0.90683000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>0.71428999999999998</v>
       </c>
       <c r="B19" s="1">
-        <v>0.61904999999999999</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="C19" s="1">
         <v>0.71428999999999998</v>
@@ -4566,7 +4566,7 @@
         <v>0.70369999999999999</v>
       </c>
       <c r="E19">
-        <v>0.62963000000000002</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="F19">
         <v>0.66666999999999998</v>
@@ -4593,18 +4593,18 @@
         <v>0.90824000000000005</v>
       </c>
       <c r="N19">
-        <v>0.90669</v>
+        <v>0.90512999999999999</v>
       </c>
       <c r="O19">
         <v>0.89890999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.85714000000000001</v>
       </c>
       <c r="B20" s="1">
-        <v>0.95238</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="C20" s="1">
         <v>0.80952000000000002</v>
@@ -4622,7 +4622,7 @@
         <v>0.79220999999999997</v>
       </c>
       <c r="H20">
-        <v>0.77922000000000002</v>
+        <v>0.76622999999999997</v>
       </c>
       <c r="I20">
         <v>0.79220999999999997</v>
@@ -4631,7 +4631,7 @@
         <v>0.78571000000000002</v>
       </c>
       <c r="K20">
-        <v>0.78571000000000002</v>
+        <v>0.82142999999999999</v>
       </c>
       <c r="L20">
         <v>0.80952000000000002</v>
@@ -4640,18 +4640,18 @@
         <v>0.90980000000000005</v>
       </c>
       <c r="N20">
-        <v>0.89736000000000005</v>
+        <v>0.90980000000000005</v>
       </c>
       <c r="O20">
         <v>0.90358000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.80952000000000002</v>
       </c>
       <c r="B21" s="1">
-        <v>0.90476000000000001</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="C21" s="1">
         <v>0.85714000000000001</v>
@@ -4669,7 +4669,7 @@
         <v>0.75324999999999998</v>
       </c>
       <c r="H21">
-        <v>0.74026000000000003</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="I21">
         <v>0.75324999999999998</v>
@@ -4678,7 +4678,7 @@
         <v>0.72619</v>
       </c>
       <c r="K21">
-        <v>0.72619</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="L21">
         <v>0.73809999999999998</v>
@@ -4687,18 +4687,18 @@
         <v>0.91757</v>
       </c>
       <c r="N21">
-        <v>0.91913</v>
+        <v>0.92379</v>
       </c>
       <c r="O21">
         <v>0.92535000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.80952000000000002</v>
       </c>
       <c r="B22" s="1">
-        <v>0.80952000000000002</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="C22" s="1">
         <v>0.76190000000000002</v>
@@ -4716,7 +4716,7 @@
         <v>0.69737000000000005</v>
       </c>
       <c r="H22">
-        <v>0.72367999999999999</v>
+        <v>0.68420999999999998</v>
       </c>
       <c r="I22">
         <v>0.69737000000000005</v>
@@ -4725,7 +4725,7 @@
         <v>0.77381</v>
       </c>
       <c r="K22">
-        <v>0.76190000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
         <v>0.76190000000000002</v>
@@ -4734,20 +4734,20 @@
         <v>0.91757</v>
       </c>
       <c r="N22">
-        <v>0.92223999999999995</v>
+        <v>0.91757</v>
       </c>
       <c r="O22">
         <v>0.91757</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>AVERAGE(A3:A22) * 100</f>
         <v>79.458799999999982</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23:O23" si="0">AVERAGE(B3:B22) * 100</f>
-        <v>77.370099999999994</v>
+        <v>76.136300000000006</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>81.666550000000001</v>
+        <v>82.592500000000001</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>75.516099999999994</v>
+        <v>75.320350000000005</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>75.240950000000012</v>
+        <v>74.888049999999993</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>91.367499999999993</v>
+        <v>91.538550000000015</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
@@ -4814,13 +4814,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0.90476000000000001</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.85185</v>
+        <v>0.81481000000000003</v>
       </c>
       <c r="F3">
         <v>0.85185</v>
@@ -4899,13 +4899,13 @@
         <v>0.92535000000000001</v>
       </c>
       <c r="N3">
-        <v>0.91291</v>
+        <v>0.91601999999999995</v>
       </c>
       <c r="O3">
         <v>0.91913</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0.77273000000000003</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0.64934999999999998</v>
       </c>
       <c r="H4">
-        <v>0.68830999999999998</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="I4">
         <v>0.64934999999999998</v>
@@ -4946,13 +4946,13 @@
         <v>0.91615000000000002</v>
       </c>
       <c r="N4">
-        <v>0.91303999999999996</v>
+        <v>0.90993999999999997</v>
       </c>
       <c r="O4">
         <v>0.91303999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0.81818000000000002</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>0.77922000000000002</v>
       </c>
       <c r="H5">
-        <v>0.77922000000000002</v>
+        <v>0.74026000000000003</v>
       </c>
       <c r="I5">
         <v>0.74026000000000003</v>
@@ -4984,7 +4984,7 @@
         <v>0.70587999999999995</v>
       </c>
       <c r="K5">
-        <v>0.71765000000000001</v>
+        <v>0.72941</v>
       </c>
       <c r="L5">
         <v>0.69411999999999996</v>
@@ -4993,18 +4993,18 @@
         <v>0.91459999999999997</v>
       </c>
       <c r="N5">
-        <v>0.91303999999999996</v>
+        <v>0.90683000000000002</v>
       </c>
       <c r="O5">
         <v>0.91459999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0.81818000000000002</v>
       </c>
       <c r="B6" s="1">
-        <v>0.72726999999999997</v>
+        <v>0.77273000000000003</v>
       </c>
       <c r="C6" s="1">
         <v>0.81818000000000002</v>
@@ -5013,7 +5013,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E6" s="1">
-        <v>0.81481000000000003</v>
+        <v>0.74073999999999995</v>
       </c>
       <c r="F6">
         <v>0.81481000000000003</v>
@@ -5022,7 +5022,7 @@
         <v>0.80518999999999996</v>
       </c>
       <c r="H6">
-        <v>0.80518999999999996</v>
+        <v>0.77922000000000002</v>
       </c>
       <c r="I6">
         <v>0.79220999999999997</v>
@@ -5031,7 +5031,7 @@
         <v>0.71765000000000001</v>
       </c>
       <c r="K6">
-        <v>0.74117999999999995</v>
+        <v>0.72941</v>
       </c>
       <c r="L6">
         <v>0.71765000000000001</v>
@@ -5040,18 +5040,18 @@
         <v>0.89751999999999998</v>
       </c>
       <c r="N6">
-        <v>0.90061999999999998</v>
+        <v>0.89595999999999998</v>
       </c>
       <c r="O6">
         <v>0.90217000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0.59091000000000005</v>
       </c>
       <c r="B7" s="1">
-        <v>0.63636000000000004</v>
+        <v>0.59091000000000005</v>
       </c>
       <c r="C7" s="1">
         <v>0.59091000000000005</v>
@@ -5069,7 +5069,7 @@
         <v>0.75324999999999998</v>
       </c>
       <c r="H7">
-        <v>0.74026000000000003</v>
+        <v>0.72726999999999997</v>
       </c>
       <c r="I7">
         <v>0.75324999999999998</v>
@@ -5078,7 +5078,7 @@
         <v>0.71765000000000001</v>
       </c>
       <c r="K7">
-        <v>0.69411999999999996</v>
+        <v>0.76471</v>
       </c>
       <c r="L7">
         <v>0.71765000000000001</v>
@@ -5087,18 +5087,18 @@
         <v>0.90373000000000003</v>
       </c>
       <c r="N7">
-        <v>0.89907000000000004</v>
+        <v>0.90527999999999997</v>
       </c>
       <c r="O7">
         <v>0.91303999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0.80952000000000002</v>
       </c>
       <c r="B8" s="1">
-        <v>0.80952000000000002</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="C8" s="1">
         <v>0.76190000000000002</v>
@@ -5107,7 +5107,7 @@
         <v>0.77778000000000003</v>
       </c>
       <c r="E8" s="1">
-        <v>0.81481000000000003</v>
+        <v>0.77778000000000003</v>
       </c>
       <c r="F8">
         <v>0.81481000000000003</v>
@@ -5125,7 +5125,7 @@
         <v>0.75294000000000005</v>
       </c>
       <c r="K8">
-        <v>0.76471</v>
+        <v>0.71765000000000001</v>
       </c>
       <c r="L8">
         <v>0.72941</v>
@@ -5134,18 +5134,18 @@
         <v>0.91925000000000001</v>
       </c>
       <c r="N8">
-        <v>0.91149000000000002</v>
+        <v>0.92235999999999996</v>
       </c>
       <c r="O8">
         <v>0.91925000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0.85714000000000001</v>
       </c>
       <c r="B9" s="1">
-        <v>0.85714000000000001</v>
+        <v>0.80952000000000002</v>
       </c>
       <c r="C9" s="1">
         <v>0.85714000000000001</v>
@@ -5154,7 +5154,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E9" s="1">
-        <v>0.77778000000000003</v>
+        <v>0.81481000000000003</v>
       </c>
       <c r="F9">
         <v>0.85185</v>
@@ -5163,7 +5163,7 @@
         <v>0.68830999999999998</v>
       </c>
       <c r="H9">
-        <v>0.68830999999999998</v>
+        <v>0.71428999999999998</v>
       </c>
       <c r="I9">
         <v>0.74026000000000003</v>
@@ -5172,7 +5172,7 @@
         <v>0.68235000000000001</v>
       </c>
       <c r="K9">
-        <v>0.71765000000000001</v>
+        <v>0.75294000000000005</v>
       </c>
       <c r="L9">
         <v>0.75294000000000005</v>
@@ -5181,13 +5181,13 @@
         <v>0.90824000000000005</v>
       </c>
       <c r="N9">
-        <v>0.91134999999999999</v>
+        <v>0.90202000000000004</v>
       </c>
       <c r="O9">
         <v>0.90824000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0.80952000000000002</v>
       </c>
@@ -5228,18 +5228,18 @@
         <v>0.93001999999999996</v>
       </c>
       <c r="N10">
-        <v>0.92379</v>
+        <v>0.93001999999999996</v>
       </c>
       <c r="O10">
         <v>0.92691000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>0.85714000000000001</v>
       </c>
       <c r="B11" s="1">
-        <v>0.90476000000000001</v>
+        <v>0.85714000000000001</v>
       </c>
       <c r="C11" s="1">
         <v>0.80952000000000002</v>
@@ -5248,7 +5248,7 @@
         <v>0.74073999999999995</v>
       </c>
       <c r="E11" s="1">
-        <v>0.77778000000000003</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="F11">
         <v>0.85185</v>
@@ -5257,7 +5257,7 @@
         <v>0.75324999999999998</v>
       </c>
       <c r="H11">
-        <v>0.76622999999999997</v>
+        <v>0.72726999999999997</v>
       </c>
       <c r="I11">
         <v>0.74026000000000003</v>
@@ -5266,7 +5266,7 @@
         <v>0.82142999999999999</v>
       </c>
       <c r="K11">
-        <v>0.73809999999999998</v>
+        <v>0.80952000000000002</v>
       </c>
       <c r="L11">
         <v>0.79762</v>
@@ -5275,18 +5275,18 @@
         <v>0.90669</v>
       </c>
       <c r="N11">
-        <v>0.90980000000000005</v>
+        <v>0.90046999999999999</v>
       </c>
       <c r="O11">
         <v>0.91291</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0.57142999999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.52381</v>
+        <v>0.47619</v>
       </c>
       <c r="C12" s="1">
         <v>0.57142999999999999</v>
@@ -5295,7 +5295,7 @@
         <v>0.92593000000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0.96296000000000004</v>
+        <v>0.88888999999999996</v>
       </c>
       <c r="F12">
         <v>0.88888999999999996</v>
@@ -5304,7 +5304,7 @@
         <v>0.77632000000000001</v>
       </c>
       <c r="H12">
-        <v>0.80262999999999995</v>
+        <v>0.78947000000000001</v>
       </c>
       <c r="I12">
         <v>0.80262999999999995</v>
@@ -5313,7 +5313,7 @@
         <v>0.79762</v>
       </c>
       <c r="K12">
-        <v>0.76190000000000002</v>
+        <v>0.78571000000000002</v>
       </c>
       <c r="L12">
         <v>0.80952000000000002</v>
@@ -5322,13 +5322,13 @@
         <v>0.89580000000000004</v>
       </c>
       <c r="N12">
-        <v>0.89736000000000005</v>
+        <v>0.89268999999999998</v>
       </c>
       <c r="O12">
         <v>0.89114000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0.76190000000000002</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>0.81481000000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.81481000000000003</v>
+        <v>0.85185</v>
       </c>
       <c r="F13">
         <v>0.81481000000000003</v>
@@ -5351,7 +5351,7 @@
         <v>0.72367999999999999</v>
       </c>
       <c r="H13">
-        <v>0.73684000000000005</v>
+        <v>0.71052999999999999</v>
       </c>
       <c r="I13">
         <v>0.75</v>
@@ -5360,7 +5360,7 @@
         <v>0.69047999999999998</v>
       </c>
       <c r="K13">
-        <v>0.67857000000000001</v>
+        <v>0.72619</v>
       </c>
       <c r="L13">
         <v>0.72619</v>
@@ -5369,13 +5369,13 @@
         <v>0.91291</v>
       </c>
       <c r="N13">
-        <v>0.90669</v>
+        <v>0.90358000000000005</v>
       </c>
       <c r="O13">
         <v>0.90669</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>0.81818000000000002</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>0.77778000000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.81481000000000003</v>
+        <v>0.77778000000000003</v>
       </c>
       <c r="F14">
         <v>0.81481000000000003</v>
@@ -5398,7 +5398,7 @@
         <v>0.79220999999999997</v>
       </c>
       <c r="H14">
-        <v>0.71428999999999998</v>
+        <v>0.75324999999999998</v>
       </c>
       <c r="I14">
         <v>0.71428999999999998</v>
@@ -5416,18 +5416,18 @@
         <v>0.91925000000000001</v>
       </c>
       <c r="N14">
-        <v>0.90993999999999997</v>
+        <v>0.91149000000000002</v>
       </c>
       <c r="O14">
         <v>0.91459999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0.77273000000000003</v>
       </c>
       <c r="B15" s="1">
-        <v>0.77273000000000003</v>
+        <v>0.86363999999999996</v>
       </c>
       <c r="C15" s="1">
         <v>0.81818000000000002</v>
@@ -5445,7 +5445,7 @@
         <v>0.76622999999999997</v>
       </c>
       <c r="H15">
-        <v>0.79220999999999997</v>
+        <v>0.76622999999999997</v>
       </c>
       <c r="I15">
         <v>0.75324999999999998</v>
@@ -5454,7 +5454,7 @@
         <v>0.77646999999999999</v>
       </c>
       <c r="K15">
-        <v>0.77646999999999999</v>
+        <v>0.75294000000000005</v>
       </c>
       <c r="L15">
         <v>0.76471</v>
@@ -5463,18 +5463,18 @@
         <v>0.92701999999999996</v>
       </c>
       <c r="N15">
-        <v>0.91925000000000001</v>
+        <v>0.92391000000000001</v>
       </c>
       <c r="O15">
         <v>0.92081000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0.68181999999999998</v>
       </c>
       <c r="B16" s="1">
-        <v>0.81818000000000002</v>
+        <v>0.72726999999999997</v>
       </c>
       <c r="C16" s="1">
         <v>0.81818000000000002</v>
@@ -5483,7 +5483,7 @@
         <v>0.74073999999999995</v>
       </c>
       <c r="E16" s="1">
-        <v>0.70369999999999999</v>
+        <v>0.74073999999999995</v>
       </c>
       <c r="F16">
         <v>0.66666999999999998</v>
@@ -5501,7 +5501,7 @@
         <v>0.77646999999999999</v>
       </c>
       <c r="K16">
-        <v>0.77646999999999999</v>
+        <v>0.82352999999999998</v>
       </c>
       <c r="L16">
         <v>0.77646999999999999</v>
@@ -5510,18 +5510,18 @@
         <v>0.92235999999999996</v>
       </c>
       <c r="N16">
-        <v>0.91925000000000001</v>
+        <v>0.91149000000000002</v>
       </c>
       <c r="O16">
         <v>0.91615000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0.81818000000000002</v>
       </c>
       <c r="B17" s="1">
-        <v>0.81818000000000002</v>
+        <v>0.77273000000000003</v>
       </c>
       <c r="C17" s="1">
         <v>0.81818000000000002</v>
@@ -5539,7 +5539,7 @@
         <v>0.75324999999999998</v>
       </c>
       <c r="H17">
-        <v>0.75324999999999998</v>
+        <v>0.74026000000000003</v>
       </c>
       <c r="I17">
         <v>0.75324999999999998</v>
@@ -5548,7 +5548,7 @@
         <v>0.72941</v>
       </c>
       <c r="K17">
-        <v>0.77646999999999999</v>
+        <v>0.72941</v>
       </c>
       <c r="L17">
         <v>0.77646999999999999</v>
@@ -5557,18 +5557,18 @@
         <v>0.91303999999999996</v>
       </c>
       <c r="N17">
-        <v>0.90839000000000003</v>
+        <v>0.90373000000000003</v>
       </c>
       <c r="O17">
         <v>0.90839000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0.66666999999999998</v>
       </c>
       <c r="B18" s="1">
-        <v>0.76190000000000002</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C18" s="1">
         <v>0.76190000000000002</v>
@@ -5577,7 +5577,7 @@
         <v>0.66666999999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.66666999999999998</v>
+        <v>0.62963000000000002</v>
       </c>
       <c r="F18">
         <v>0.66666999999999998</v>
@@ -5586,7 +5586,7 @@
         <v>0.79220999999999997</v>
       </c>
       <c r="H18">
-        <v>0.81818000000000002</v>
+        <v>0.76622999999999997</v>
       </c>
       <c r="I18">
         <v>0.77922000000000002</v>
@@ -5595,7 +5595,7 @@
         <v>0.72941</v>
       </c>
       <c r="K18">
-        <v>0.68235000000000001</v>
+        <v>0.72941</v>
       </c>
       <c r="L18">
         <v>0.67059000000000002</v>
@@ -5604,18 +5604,18 @@
         <v>0.91459999999999997</v>
       </c>
       <c r="N18">
-        <v>0.90993999999999997</v>
+        <v>0.89751999999999998</v>
       </c>
       <c r="O18">
         <v>0.90839000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>0.66666999999999998</v>
       </c>
       <c r="B19" s="1">
-        <v>0.61904999999999999</v>
+        <v>0.66666999999999998</v>
       </c>
       <c r="C19" s="1">
         <v>0.66666999999999998</v>
@@ -5624,7 +5624,7 @@
         <v>0.74073999999999995</v>
       </c>
       <c r="E19" s="1">
-        <v>0.81481000000000003</v>
+        <v>0.77778000000000003</v>
       </c>
       <c r="F19">
         <v>0.81481000000000003</v>
@@ -5642,7 +5642,7 @@
         <v>0.76471</v>
       </c>
       <c r="K19">
-        <v>0.72941</v>
+        <v>0.76471</v>
       </c>
       <c r="L19">
         <v>0.76471</v>
@@ -5651,13 +5651,13 @@
         <v>0.90202000000000004</v>
       </c>
       <c r="N19">
-        <v>0.90512999999999999</v>
+        <v>0.89268999999999998</v>
       </c>
       <c r="O19">
         <v>0.90202000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0.90476000000000001</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0.77778000000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.81481000000000003</v>
+        <v>0.77778000000000003</v>
       </c>
       <c r="F20">
         <v>0.77778000000000003</v>
@@ -5680,7 +5680,7 @@
         <v>0.81818000000000002</v>
       </c>
       <c r="H20">
-        <v>0.76622999999999997</v>
+        <v>0.77922000000000002</v>
       </c>
       <c r="I20">
         <v>0.75324999999999998</v>
@@ -5689,7 +5689,7 @@
         <v>0.77381</v>
       </c>
       <c r="K20">
-        <v>0.79762</v>
+        <v>0.80952000000000002</v>
       </c>
       <c r="L20">
         <v>0.82142999999999999</v>
@@ -5698,13 +5698,13 @@
         <v>0.90358000000000005</v>
       </c>
       <c r="N20">
-        <v>0.91291</v>
+        <v>0.90358000000000005</v>
       </c>
       <c r="O20">
         <v>0.90202000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>0.85714000000000001</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>0.77922000000000002</v>
       </c>
       <c r="H21">
-        <v>0.74026000000000003</v>
+        <v>0.75324999999999998</v>
       </c>
       <c r="I21">
         <v>0.74026000000000003</v>
@@ -5736,7 +5736,7 @@
         <v>0.71428999999999998</v>
       </c>
       <c r="K21">
-        <v>0.71428999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
         <v>0.75</v>
@@ -5745,18 +5745,18 @@
         <v>0.91446000000000005</v>
       </c>
       <c r="N21">
-        <v>0.90980000000000005</v>
+        <v>0.92068000000000005</v>
       </c>
       <c r="O21">
         <v>0.90980000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0.80952000000000002</v>
       </c>
       <c r="B22" s="1">
-        <v>0.85714000000000001</v>
+        <v>0.80952000000000002</v>
       </c>
       <c r="C22" s="1">
         <v>0.76190000000000002</v>
@@ -5765,7 +5765,7 @@
         <v>0.88888999999999996</v>
       </c>
       <c r="E22" s="1">
-        <v>0.88888999999999996</v>
+        <v>0.92593000000000003</v>
       </c>
       <c r="F22">
         <v>0.92593000000000003</v>
@@ -5774,7 +5774,7 @@
         <v>0.73684000000000005</v>
       </c>
       <c r="H22">
-        <v>0.75</v>
+        <v>0.76315999999999995</v>
       </c>
       <c r="I22">
         <v>0.72367999999999999</v>
@@ -5783,7 +5783,7 @@
         <v>0.76190000000000002</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.77381</v>
       </c>
       <c r="L22">
         <v>0.72619</v>
@@ -5792,20 +5792,20 @@
         <v>0.91446000000000005</v>
       </c>
       <c r="N22">
-        <v>0.90824000000000005</v>
+        <v>0.91291</v>
       </c>
       <c r="O22">
         <v>0.90512999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>AVERAGE(A3:A22) * 100</f>
         <v>77.835399999999993</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23:O23" si="0">AVERAGE(B3:B22) * 100</f>
-        <v>78.755249999999975</v>
+        <v>77.099499999999992</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>81.296149999999983</v>
+        <v>79.629649999999998</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>75.977399999999989</v>
+        <v>75.391349999999989</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>73.524549999999991</v>
+        <v>75.184100000000001</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>91.010050000000007</v>
+        <v>90.815850000000012</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
